--- a/src/test/java/testCases/payment/PayOrderTestData.xlsx
+++ b/src/test/java/testCases/payment/PayOrderTestData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/otp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/payment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CB71B-339A-0640-8948-D1CA482813D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB470CDB-980E-F044-AA49-9C54961491AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Payment" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,16 +33,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+  <si>
+    <t>testCase</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>paymentMethodId</t>
+  </si>
+  <si>
+    <t>voucherId</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Valid parameters cashback</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Valid parameters discount</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>Not enough balance</t>
+  </si>
+  <si>
+    <t>Undefined transaction ID</t>
+  </si>
+  <si>
+    <t>Empty String transaction ID</t>
+  </si>
+  <si>
+    <t>Another user's transaction</t>
+  </si>
+  <si>
+    <t>Transaction already completed</t>
+  </si>
+  <si>
+    <t>Transaction already canceled</t>
+  </si>
+  <si>
+    <t>Transaction already expired</t>
+  </si>
+  <si>
+    <t>Undefined payment method ID</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Empty string payment method ID</t>
+  </si>
+  <si>
+    <t>Undefined voucher id</t>
+  </si>
+  <si>
+    <t>Empty string voucher id</t>
+  </si>
+  <si>
+    <t>Voucher not available for the transaction</t>
+  </si>
+  <si>
+    <t>Voucher already used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Voucher expired</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>sessionId</t>
+  </si>
+  <si>
+    <t>16E8134F893B0407FF9DBA58CB8EC832</t>
+  </si>
+  <si>
+    <t>Empty String session ID</t>
+  </si>
+  <si>
+    <t>Undefined session ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,27 +144,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -98,25 +189,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,64 +514,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testCases/payment/PayOrderTestData.xlsx
+++ b/src/test/java/testCases/payment/PayOrderTestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/payment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB470CDB-980E-F044-AA49-9C54961491AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B49FD43-62E3-CD4B-B02C-2C35CD9D7F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment" sheetId="2" r:id="rId1"/>
+    <sheet name="Backup Payment" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>testCase</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t>Undefined session ID</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Valid parameters</t>
   </si>
 </sst>
 </file>
@@ -514,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +558,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -563,13 +570,69 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD80A477-F984-2A4B-A2F5-D8F8D6999F76}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -581,16 +644,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -599,16 +662,16 @@
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -623,10 +686,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -641,13 +704,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -659,12 +722,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
@@ -675,7 +740,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -691,14 +756,12 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
@@ -709,44 +772,44 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -754,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
@@ -763,41 +826,41 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
@@ -808,12 +871,14 @@
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
@@ -824,14 +889,12 @@
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>6</v>
@@ -843,27 +906,45 @@
         <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testCases/payment/PayOrderTestData.xlsx
+++ b/src/test/java/testCases/payment/PayOrderTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/testCases/payment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B49FD43-62E3-CD4B-B02C-2C35CD9D7F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196F62B5-6605-0542-8F45-6AEF897F39C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="40">
   <si>
     <t>testCase</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>Valid parameters</t>
+  </si>
+  <si>
+    <t>"code":404,"message":"unknown transaction"</t>
+  </si>
+  <si>
+    <t>"method":"WALLET","phoneNumber":"081252930398","catalog":{"id":19,"provider":{"id":2,"name":"Telkomsel","image":"https://res.cloudinary.com/alvark/image/upload/v1592209103/danapulsa/Telkomsel_Logo_eviigt_nbbrjv.png"},"value":75000,"price":75000},"voucher":null,"status":"COMPLETED"</t>
+  </si>
+  <si>
+    <t>"code":400,"message":"method ID must not be null"</t>
+  </si>
+  <si>
+    <t>"code":400,"message":"transaction ID must not be null"</t>
+  </si>
+  <si>
+    <t>"code":401,"message":"Unauthorized"</t>
+  </si>
+  <si>
+    <t>"code":404,"message":"unknown method"</t>
   </si>
 </sst>
 </file>
@@ -521,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,6 +552,7 @@
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -572,7 +591,203 @@
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -584,12 +799,13 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -628,7 +844,9 @@
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -682,7 +900,9 @@
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -700,7 +920,9 @@
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -736,7 +958,9 @@
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -752,7 +976,9 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -768,7 +994,9 @@
       <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -786,7 +1014,9 @@
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -804,7 +1034,9 @@
       <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -822,7 +1054,9 @@
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -840,7 +1074,9 @@
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -856,7 +1092,9 @@
       <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
